--- a/biology/Botanique/Ceratophyllaceae/Ceratophyllaceae.xlsx
+++ b/biology/Botanique/Ceratophyllaceae/Ceratophyllaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ceratophyllaceae sont une famille de plantes à fleurs (les Angiospermes) qui comprend une dizaine d'espèces appartenant au genre Ceratophyllum.
 Ce sont des plantes aquatiques des étangs et rivières à faible courant, entièrement immergées, sans racine. Les feuilles sont en verticilles, les tiges présentent de nombreuses ramifications et sont très cassantes. La floraison a lieu dans l'eau qui assure la pollinisation. Plante à croissance rapide, grosse productrice d'oxygène, l'espèce Ceratophyllum demersum est utilisée en aquariophilie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre-type Ceratophyllum dérivé du grec κέρας / keras, corne, trompe, et φύλλων / fyllon, feuille[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre-type Ceratophyllum dérivé du grec κέρας / keras, corne, trompe, et φύλλων / fyllon, feuille.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Suivant la classification phylogénétique cette famille fait partie des ordres de divergence ancienne et ne sont pas de vraies dicotylédones.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[2], Angiosperm Phylogeny Website                        (21 mai 2010)[3], NCBI  (22 avr. 2010)[4], DELTA Angio           (22 avr. 2010)[5] et ITIS      (22 avr. 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010), Angiosperm Phylogeny Website                        (21 mai 2010), NCBI  (22 avr. 2010), DELTA Angio           (22 avr. 2010) et ITIS      (22 avr. 2010) :
 genre Ceratophyllum L. (1753)</t>
         </is>
       </c>
@@ -605,15 +623,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010) :
 genre Ceratophyllum L. (1753)
 Ceratophyllum demersum L. (1753)
 Ceratophyllum muricatum Cham. (1829)
 Ceratophyllum platyacanthum Cham. (1829)
 Ceratophyllum submersum L. (1763)
-Selon NCBI  (22 avr. 2010)[4] :
+Selon NCBI  (22 avr. 2010) :
 genre Ceratophyllum
 Ceratophyllum demersum
 Ceratophyllum echinatum
